--- a/Volcano/VolcanoSlicingCoords.xlsx
+++ b/Volcano/VolcanoSlicingCoords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Boller CFD\AVIATION CFD\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D9C7CE-F6F0-4341-A6FE-8160473555BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A47C01-3A2E-4FA4-ABBE-13E8788D1C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5685" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -190,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -492,11 +492,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -569,6 +580,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -576,6 +590,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -861,47 +878,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:U63"/>
+  <dimension ref="B1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="22" max="22" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+    <row r="1" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="G2" s="27" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="G2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="29"/>
-      <c r="U2" s="16" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="31"/>
+      <c r="V2" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
@@ -947,14 +965,17 @@
       <c r="R3" s="24">
         <v>1</v>
       </c>
-      <c r="S3" s="23">
+      <c r="S3" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="T3" s="23">
         <v>2.33</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="V3" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
@@ -1001,13 +1022,16 @@
         <v>2.2169449999999999</v>
       </c>
       <c r="S4" s="9">
+        <v>2.2306286000000002</v>
+      </c>
+      <c r="T4" s="9">
         <v>2.3078041040000001</v>
       </c>
-      <c r="U4" s="17" t="s">
+      <c r="V4" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
         <v>0</v>
       </c>
@@ -1054,13 +1078,16 @@
         <v>9.2960000000000004E-3</v>
       </c>
       <c r="S5" s="10">
+        <v>1.4964999999999999E-2</v>
+      </c>
+      <c r="T5" s="10">
         <v>1.8592999999999998E-2</v>
       </c>
-      <c r="U5" s="17" t="s">
+      <c r="V5" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
       <c r="G6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1100,11 +1127,14 @@
       <c r="S6" s="10">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="U6" s="17" t="s">
+      <c r="T6" s="10">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="V6" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="15" t="s">
         <v>34</v>
       </c>
@@ -1145,13 +1175,16 @@
         <v>2.2169449999999999</v>
       </c>
       <c r="S7" s="22">
+        <v>2.2306286000000002</v>
+      </c>
+      <c r="T7" s="22">
         <v>2.3078041040000001</v>
       </c>
-      <c r="U7" s="18" t="s">
+      <c r="V7" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
         <v>35</v>
       </c>
@@ -1198,10 +1231,13 @@
         <v>4.6481999999999996E-2</v>
       </c>
       <c r="S8" s="22">
+        <v>5.2150999999999996E-2</v>
+      </c>
+      <c r="T8" s="22">
         <v>5.5778999999999995E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="G9" s="19" t="s">
         <v>19</v>
       </c>
@@ -1241,8 +1277,11 @@
       <c r="S9" s="22">
         <v>3.8100000000000002E-2</v>
       </c>
-    </row>
-    <row r="10" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T9" s="22">
+        <v>3.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1282,26 +1321,30 @@
       <c r="S10" s="14">
         <v>500</v>
       </c>
-    </row>
-    <row r="12" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="27" t="s">
+      <c r="T10" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="29"/>
-    </row>
-    <row r="14" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="31"/>
+    </row>
+    <row r="14" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1338,11 +1381,14 @@
       <c r="R14" s="24">
         <v>1</v>
       </c>
-      <c r="S14" s="23">
+      <c r="S14" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="T14" s="23">
         <v>2.33</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
       <c r="G15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1380,10 +1426,13 @@
         <v>2.2169449999999999</v>
       </c>
       <c r="S15" s="9">
+        <v>2.2306286000000002</v>
+      </c>
+      <c r="T15" s="9">
         <v>2.3078041040000001</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
       <c r="G16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1421,10 +1470,13 @@
         <v>9.2960000000000004E-3</v>
       </c>
       <c r="S16" s="10">
+        <v>1.4964999999999999E-2</v>
+      </c>
+      <c r="T16" s="10">
         <v>1.8592999999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1464,8 +1516,11 @@
       <c r="S17" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="T17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G18" s="19" t="s">
         <v>17</v>
       </c>
@@ -1503,10 +1558,13 @@
         <v>2.2169449999999999</v>
       </c>
       <c r="S18" s="22">
+        <v>2.2306286000000002</v>
+      </c>
+      <c r="T18" s="22">
         <v>2.3078041040000001</v>
       </c>
     </row>
-    <row r="19" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G19" s="19" t="s">
         <v>18</v>
       </c>
@@ -1544,10 +1602,13 @@
         <v>4.6481999999999996E-2</v>
       </c>
       <c r="S19" s="22">
+        <v>5.2150999999999996E-2</v>
+      </c>
+      <c r="T19" s="22">
         <v>5.5778999999999995E-2</v>
       </c>
     </row>
-    <row r="20" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G20" s="19" t="s">
         <v>19</v>
       </c>
@@ -1587,8 +1648,11 @@
       <c r="S20" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="7:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T20" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="7:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G21" s="4" t="s">
         <v>7</v>
       </c>
@@ -1628,26 +1692,30 @@
       <c r="S21" s="14">
         <v>500</v>
       </c>
-    </row>
-    <row r="23" spans="7:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="7:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G24" s="27" t="s">
+      <c r="T21" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="7:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="7:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G24" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="29"/>
-    </row>
-    <row r="25" spans="7:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="31"/>
+    </row>
+    <row r="25" spans="7:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G25" s="1" t="s">
         <v>6</v>
       </c>
@@ -1684,11 +1752,14 @@
       <c r="R25" s="24">
         <v>1</v>
       </c>
-      <c r="S25" s="23">
+      <c r="S25" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="T25" s="23">
         <v>2.33</v>
       </c>
     </row>
-    <row r="26" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G26" s="2" t="s">
         <v>14</v>
       </c>
@@ -1726,10 +1797,13 @@
         <v>2.2169449999999999</v>
       </c>
       <c r="S26" s="9">
+        <v>2.2306286000000002</v>
+      </c>
+      <c r="T26" s="9">
         <v>2.3078041040000001</v>
       </c>
     </row>
-    <row r="27" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G27" s="3" t="s">
         <v>15</v>
       </c>
@@ -1767,10 +1841,13 @@
         <v>9.2960000000000004E-3</v>
       </c>
       <c r="S27" s="10">
+        <v>1.4964999999999999E-2</v>
+      </c>
+      <c r="T27" s="10">
         <v>1.8592999999999998E-2</v>
       </c>
     </row>
-    <row r="28" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G28" s="3" t="s">
         <v>16</v>
       </c>
@@ -1810,8 +1887,11 @@
       <c r="S28" s="10">
         <v>-3.8100000000000002E-2</v>
       </c>
-    </row>
-    <row r="29" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="T28" s="10">
+        <v>-3.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G29" s="19" t="s">
         <v>17</v>
       </c>
@@ -1849,10 +1929,13 @@
         <v>2.2169449999999999</v>
       </c>
       <c r="S29" s="22">
+        <v>2.2306286000000002</v>
+      </c>
+      <c r="T29" s="22">
         <v>2.3078041040000001</v>
       </c>
     </row>
-    <row r="30" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G30" s="19" t="s">
         <v>18</v>
       </c>
@@ -1890,10 +1973,13 @@
         <v>4.6481999999999996E-2</v>
       </c>
       <c r="S30" s="22">
+        <v>5.2150999999999996E-2</v>
+      </c>
+      <c r="T30" s="22">
         <v>5.5778999999999995E-2</v>
       </c>
     </row>
-    <row r="31" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G31" s="19" t="s">
         <v>19</v>
       </c>
@@ -1933,8 +2019,11 @@
       <c r="S31" s="22">
         <v>-3.8100000000000002E-2</v>
       </c>
-    </row>
-    <row r="32" spans="7:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T31" s="22">
+        <v>-3.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="7:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G32" s="4" t="s">
         <v>7</v>
       </c>
@@ -1974,25 +2063,29 @@
       <c r="S32" s="14">
         <v>500</v>
       </c>
-    </row>
-    <row r="36" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="G36" s="26" t="s">
+      <c r="T32" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="5:20" x14ac:dyDescent="0.3">
+      <c r="G36" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-    </row>
-    <row r="37" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+    </row>
+    <row r="37" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
         <v>20</v>
       </c>
@@ -2036,10 +2129,13 @@
         <v>1</v>
       </c>
       <c r="S37">
+        <v>1.2</v>
+      </c>
+      <c r="T37">
         <v>2.3279999999999998</v>
       </c>
     </row>
-    <row r="38" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
         <v>23</v>
       </c>
@@ -2062,7 +2158,7 @@
         <v>2.1143179999999999</v>
       </c>
       <c r="K38">
-        <f t="shared" ref="K38:S38" si="0">$F$37+(K37*$C$3)</f>
+        <f t="shared" ref="K38:T38" si="0">$F$37+(K37*$C$3)</f>
         <v>2.1505795400000003</v>
       </c>
       <c r="L38">
@@ -2094,11 +2190,15 @@
         <v>2.2169449999999999</v>
       </c>
       <c r="S38">
+        <f t="shared" ref="S38" si="1">$F$37+(S37*$C$3)</f>
+        <v>2.2306286000000002</v>
+      </c>
+      <c r="T38">
         <f t="shared" si="0"/>
         <v>2.3078041040000001</v>
       </c>
     </row>
-    <row r="39" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:20" x14ac:dyDescent="0.3">
       <c r="G39" s="15" t="s">
         <v>25</v>
       </c>
@@ -2136,10 +2236,13 @@
         <v>9.2960000000000004E-3</v>
       </c>
       <c r="S39">
+        <v>1.4964999999999999E-2</v>
+      </c>
+      <c r="T39">
         <v>1.8592999999999998E-2</v>
       </c>
     </row>
-    <row r="40" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:20" x14ac:dyDescent="0.3">
       <c r="G40" s="15" t="s">
         <v>24</v>
       </c>
@@ -2179,8 +2282,11 @@
       <c r="S40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="T40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:20" x14ac:dyDescent="0.3">
       <c r="G41" s="15" t="s">
         <v>26</v>
       </c>
@@ -2189,51 +2295,55 @@
         <v>2.0116909999999999</v>
       </c>
       <c r="I41">
-        <f t="shared" ref="I41:S41" si="1">I38</f>
+        <f t="shared" ref="I41:T41" si="2">I38</f>
         <v>2.0801090000000002</v>
       </c>
       <c r="J41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1143179999999999</v>
       </c>
       <c r="K41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1505795400000003</v>
       </c>
       <c r="L41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1601580600000001</v>
       </c>
       <c r="M41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1690524</v>
       </c>
       <c r="N41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1793151000000002</v>
       </c>
       <c r="O41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.18889362</v>
       </c>
       <c r="P41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1984721400000002</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2073664800000001</v>
       </c>
       <c r="R41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2169449999999999</v>
       </c>
       <c r="S41">
-        <f t="shared" si="1"/>
+        <f>S38</f>
+        <v>2.2306286000000002</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="2"/>
         <v>2.3078041040000001</v>
       </c>
     </row>
-    <row r="42" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:20" x14ac:dyDescent="0.3">
       <c r="G42" s="15" t="s">
         <v>27</v>
       </c>
@@ -2246,35 +2356,35 @@
         <v>5.5778999999999995E-2</v>
       </c>
       <c r="J42">
-        <f t="shared" ref="J42:S42" si="2">J39+$F$38</f>
+        <f t="shared" ref="J42:T42" si="3">J39+$F$38</f>
         <v>5.5778999999999995E-2</v>
       </c>
       <c r="K42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.7185999999999997E-2</v>
       </c>
       <c r="L42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.7185999999999997E-2</v>
       </c>
       <c r="M42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.7185999999999997E-2</v>
       </c>
       <c r="N42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.7185999999999997E-2</v>
       </c>
       <c r="O42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.7185999999999997E-2</v>
       </c>
       <c r="P42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.8830999999999997E-2</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.2514999999999997E-2</v>
       </c>
       <c r="R42">
@@ -2282,11 +2392,15 @@
         <v>4.6481999999999996E-2</v>
       </c>
       <c r="S42">
-        <f t="shared" si="2"/>
+        <f>S39+$F$38</f>
+        <v>5.2150999999999996E-2</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="3"/>
         <v>5.5778999999999995E-2</v>
       </c>
     </row>
-    <row r="43" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:20" x14ac:dyDescent="0.3">
       <c r="G43" s="15" t="s">
         <v>28</v>
       </c>
@@ -2295,68 +2409,73 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <f t="shared" ref="I43:S43" si="3">I40</f>
+        <f t="shared" ref="I43:T43" si="4">I40</f>
         <v>0</v>
       </c>
       <c r="J43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S43">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="G46" s="26" t="s">
+        <f t="shared" ref="S43" si="5">S40</f>
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="5:20" x14ac:dyDescent="0.3">
+      <c r="G46" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="26"/>
-      <c r="Q46" s="26"/>
-      <c r="R46" s="26"/>
-      <c r="S46" s="26"/>
-    </row>
-    <row r="47" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="27"/>
+    </row>
+    <row r="47" spans="5:20" x14ac:dyDescent="0.3">
       <c r="G47" s="15" t="s">
         <v>21</v>
       </c>
@@ -2394,10 +2513,13 @@
         <v>1</v>
       </c>
       <c r="S47">
+        <v>1.2</v>
+      </c>
+      <c r="T47">
         <v>2.3279999999999998</v>
       </c>
     </row>
-    <row r="48" spans="5:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:20" x14ac:dyDescent="0.3">
       <c r="G48" s="15" t="s">
         <v>22</v>
       </c>
@@ -2414,27 +2536,27 @@
         <v>2.1143179999999999</v>
       </c>
       <c r="K48">
-        <f t="shared" ref="K48" si="4">$F$37+(K47*$C$3)</f>
+        <f t="shared" ref="K48" si="6">$F$37+(K47*$C$3)</f>
         <v>2.1505795400000003</v>
       </c>
       <c r="L48">
-        <f t="shared" ref="L48" si="5">$F$37+(L47*$C$3)</f>
+        <f t="shared" ref="L48" si="7">$F$37+(L47*$C$3)</f>
         <v>2.1601580600000001</v>
       </c>
       <c r="M48">
-        <f t="shared" ref="M48" si="6">$F$37+(M47*$C$3)</f>
+        <f t="shared" ref="M48" si="8">$F$37+(M47*$C$3)</f>
         <v>2.1690524</v>
       </c>
       <c r="N48">
-        <f t="shared" ref="N48" si="7">$F$37+(N47*$C$3)</f>
+        <f t="shared" ref="N48" si="9">$F$37+(N47*$C$3)</f>
         <v>2.1793151000000002</v>
       </c>
       <c r="O48">
-        <f t="shared" ref="O48" si="8">$F$37+(O47*$C$3)</f>
+        <f t="shared" ref="O48" si="10">$F$37+(O47*$C$3)</f>
         <v>2.18889362</v>
       </c>
       <c r="P48">
-        <f t="shared" ref="P48" si="9">$F$37+(P47*$C$3)</f>
+        <f t="shared" ref="P48" si="11">$F$37+(P47*$C$3)</f>
         <v>2.1984721400000002</v>
       </c>
       <c r="Q48">
@@ -2442,15 +2564,19 @@
         <v>2.2073664800000001</v>
       </c>
       <c r="R48">
-        <f t="shared" ref="R48" si="10">$F$37+(R47*$C$3)</f>
+        <f t="shared" ref="R48:S48" si="12">$F$37+(R47*$C$3)</f>
         <v>2.2169449999999999</v>
       </c>
       <c r="S48">
-        <f t="shared" ref="S48" si="11">$F$37+(S47*$C$3)</f>
+        <f t="shared" si="12"/>
+        <v>2.2306286000000002</v>
+      </c>
+      <c r="T48">
+        <f t="shared" ref="T48" si="13">$F$37+(T47*$C$3)</f>
         <v>2.3078041040000001</v>
       </c>
     </row>
-    <row r="49" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G49" s="15" t="s">
         <v>25</v>
       </c>
@@ -2488,10 +2614,13 @@
         <v>9.2960000000000004E-3</v>
       </c>
       <c r="S49">
+        <v>1.4964999999999999E-2</v>
+      </c>
+      <c r="T49">
         <v>1.8592999999999998E-2</v>
       </c>
     </row>
-    <row r="50" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G50" s="15" t="s">
         <v>24</v>
       </c>
@@ -2500,51 +2629,55 @@
         <v>3.8100000000000002E-2</v>
       </c>
       <c r="I50">
-        <f t="shared" ref="I50:S50" si="12">($C$4/4)</f>
+        <f t="shared" ref="I50:T50" si="14">($C$4/4)</f>
         <v>3.8100000000000002E-2</v>
       </c>
       <c r="J50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.8100000000000002E-2</v>
       </c>
       <c r="K50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.8100000000000002E-2</v>
       </c>
       <c r="L50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.8100000000000002E-2</v>
       </c>
       <c r="M50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.8100000000000002E-2</v>
       </c>
       <c r="N50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.8100000000000002E-2</v>
       </c>
       <c r="O50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.8100000000000002E-2</v>
       </c>
       <c r="P50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.8100000000000002E-2</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.8100000000000002E-2</v>
       </c>
       <c r="R50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.8100000000000002E-2</v>
       </c>
       <c r="S50">
-        <f t="shared" si="12"/>
-        <v>3.8100000000000002E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="7:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="14"/>
+        <v>3.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G51" s="15" t="s">
         <v>26</v>
       </c>
@@ -2553,51 +2686,55 @@
         <v>2.0116909999999999</v>
       </c>
       <c r="I51">
-        <f t="shared" ref="I51:S51" si="13">I48</f>
+        <f t="shared" ref="I51:T51" si="15">I48</f>
         <v>2.0801090000000002</v>
       </c>
       <c r="J51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.1143179999999999</v>
       </c>
       <c r="K51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.1505795400000003</v>
       </c>
       <c r="L51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.1601580600000001</v>
       </c>
       <c r="M51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.1690524</v>
       </c>
       <c r="N51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.1793151000000002</v>
       </c>
       <c r="O51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.18889362</v>
       </c>
       <c r="P51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.1984721400000002</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.2073664800000001</v>
       </c>
       <c r="R51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.2169449999999999</v>
       </c>
       <c r="S51">
-        <f t="shared" si="13"/>
+        <f>S48</f>
+        <v>2.2306286000000002</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="15"/>
         <v>2.3078041040000001</v>
       </c>
     </row>
-    <row r="52" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G52" s="15" t="s">
         <v>27</v>
       </c>
@@ -2610,35 +2747,35 @@
         <v>5.5778999999999995E-2</v>
       </c>
       <c r="J52">
-        <f t="shared" ref="J52:Q52" si="14">J49+$F$38</f>
+        <f t="shared" ref="J52:Q52" si="16">J49+$F$38</f>
         <v>5.5778999999999995E-2</v>
       </c>
       <c r="K52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.7185999999999997E-2</v>
       </c>
       <c r="L52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.7185999999999997E-2</v>
       </c>
       <c r="M52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.7185999999999997E-2</v>
       </c>
       <c r="N52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.7185999999999997E-2</v>
       </c>
       <c r="O52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.7185999999999997E-2</v>
       </c>
       <c r="P52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.8830999999999997E-2</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.2514999999999997E-2</v>
       </c>
       <c r="R52">
@@ -2646,11 +2783,15 @@
         <v>4.6481999999999996E-2</v>
       </c>
       <c r="S52">
-        <f t="shared" ref="S52" si="15">S49+$F$38</f>
+        <f>S49+$F$38</f>
+        <v>5.2150999999999996E-2</v>
+      </c>
+      <c r="T52">
+        <f t="shared" ref="T52" si="17">T49+$F$38</f>
         <v>5.5778999999999995E-2</v>
       </c>
     </row>
-    <row r="53" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G53" s="15" t="s">
         <v>28</v>
       </c>
@@ -2659,68 +2800,73 @@
         <v>3.8100000000000002E-2</v>
       </c>
       <c r="I53">
-        <f t="shared" ref="I53:S53" si="16">I50</f>
+        <f t="shared" ref="I53:T53" si="18">I50</f>
         <v>3.8100000000000002E-2</v>
       </c>
       <c r="J53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.8100000000000002E-2</v>
       </c>
       <c r="K53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.8100000000000002E-2</v>
       </c>
       <c r="L53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.8100000000000002E-2</v>
       </c>
       <c r="M53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.8100000000000002E-2</v>
       </c>
       <c r="N53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.8100000000000002E-2</v>
       </c>
       <c r="O53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.8100000000000002E-2</v>
       </c>
       <c r="P53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.8100000000000002E-2</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.8100000000000002E-2</v>
       </c>
       <c r="R53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.8100000000000002E-2</v>
       </c>
       <c r="S53">
-        <f t="shared" si="16"/>
-        <v>3.8100000000000002E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G56" s="26" t="s">
+        <f t="shared" si="18"/>
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="18"/>
+        <v>3.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="G56" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="26"/>
-      <c r="P56" s="26"/>
-      <c r="Q56" s="26"/>
-      <c r="R56" s="26"/>
-      <c r="S56" s="26"/>
-    </row>
-    <row r="57" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="27"/>
+      <c r="Q56" s="27"/>
+      <c r="R56" s="27"/>
+      <c r="S56" s="27"/>
+      <c r="T56" s="27"/>
+    </row>
+    <row r="57" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G57" s="15" t="s">
         <v>21</v>
       </c>
@@ -2758,10 +2904,13 @@
         <v>1</v>
       </c>
       <c r="S57">
+        <v>1.2</v>
+      </c>
+      <c r="T57">
         <v>2.3279999999999998</v>
       </c>
     </row>
-    <row r="58" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G58" s="15" t="s">
         <v>22</v>
       </c>
@@ -2778,27 +2927,27 @@
         <v>2.1143179999999999</v>
       </c>
       <c r="K58">
-        <f t="shared" ref="K58" si="17">$F$37+(K57*$C$3)</f>
+        <f t="shared" ref="K58" si="19">$F$37+(K57*$C$3)</f>
         <v>2.1505795400000003</v>
       </c>
       <c r="L58">
-        <f t="shared" ref="L58" si="18">$F$37+(L57*$C$3)</f>
+        <f t="shared" ref="L58" si="20">$F$37+(L57*$C$3)</f>
         <v>2.1601580600000001</v>
       </c>
       <c r="M58">
-        <f t="shared" ref="M58" si="19">$F$37+(M57*$C$3)</f>
+        <f t="shared" ref="M58" si="21">$F$37+(M57*$C$3)</f>
         <v>2.1690524</v>
       </c>
       <c r="N58">
-        <f t="shared" ref="N58" si="20">$F$37+(N57*$C$3)</f>
+        <f t="shared" ref="N58" si="22">$F$37+(N57*$C$3)</f>
         <v>2.1793151000000002</v>
       </c>
       <c r="O58">
-        <f t="shared" ref="O58" si="21">$F$37+(O57*$C$3)</f>
+        <f t="shared" ref="O58" si="23">$F$37+(O57*$C$3)</f>
         <v>2.18889362</v>
       </c>
       <c r="P58">
-        <f t="shared" ref="P58" si="22">$F$37+(P57*$C$3)</f>
+        <f t="shared" ref="P58" si="24">$F$37+(P57*$C$3)</f>
         <v>2.1984721400000002</v>
       </c>
       <c r="Q58">
@@ -2806,15 +2955,19 @@
         <v>2.2073664800000001</v>
       </c>
       <c r="R58">
-        <f t="shared" ref="R58" si="23">$F$37+(R57*$C$3)</f>
+        <f t="shared" ref="R58:S58" si="25">$F$37+(R57*$C$3)</f>
         <v>2.2169449999999999</v>
       </c>
       <c r="S58">
-        <f t="shared" ref="S58" si="24">$F$37+(S57*$C$3)</f>
+        <f t="shared" si="25"/>
+        <v>2.2306286000000002</v>
+      </c>
+      <c r="T58">
+        <f t="shared" ref="T58" si="26">$F$37+(T57*$C$3)</f>
         <v>2.3078041040000001</v>
       </c>
     </row>
-    <row r="59" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G59" s="15" t="s">
         <v>25</v>
       </c>
@@ -2852,10 +3005,13 @@
         <v>9.2960000000000004E-3</v>
       </c>
       <c r="S59">
+        <v>1.4964999999999999E-2</v>
+      </c>
+      <c r="T59">
         <v>1.8592999999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G60" s="15" t="s">
         <v>24</v>
       </c>
@@ -2864,51 +3020,55 @@
         <v>-3.8100000000000002E-2</v>
       </c>
       <c r="I60">
-        <f t="shared" ref="I60:S60" si="25">-($C$4/4)</f>
+        <f t="shared" ref="I60:T60" si="27">-($C$4/4)</f>
         <v>-3.8100000000000002E-2</v>
       </c>
       <c r="J60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-3.8100000000000002E-2</v>
       </c>
       <c r="K60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-3.8100000000000002E-2</v>
       </c>
       <c r="L60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-3.8100000000000002E-2</v>
       </c>
       <c r="M60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-3.8100000000000002E-2</v>
       </c>
       <c r="N60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-3.8100000000000002E-2</v>
       </c>
       <c r="O60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-3.8100000000000002E-2</v>
       </c>
       <c r="P60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-3.8100000000000002E-2</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-3.8100000000000002E-2</v>
       </c>
       <c r="R60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-3.8100000000000002E-2</v>
       </c>
       <c r="S60">
-        <f t="shared" si="25"/>
-        <v>-3.8100000000000002E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="7:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="27"/>
+        <v>-3.8100000000000002E-2</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="27"/>
+        <v>-3.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G61" s="15" t="s">
         <v>26</v>
       </c>
@@ -2917,51 +3077,55 @@
         <v>2.0116909999999999</v>
       </c>
       <c r="I61">
-        <f t="shared" ref="I61:S61" si="26">I58</f>
+        <f t="shared" ref="I61:T61" si="28">I58</f>
         <v>2.0801090000000002</v>
       </c>
       <c r="J61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.1143179999999999</v>
       </c>
       <c r="K61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.1505795400000003</v>
       </c>
       <c r="L61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.1601580600000001</v>
       </c>
       <c r="M61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.1690524</v>
       </c>
       <c r="N61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.1793151000000002</v>
       </c>
       <c r="O61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.18889362</v>
       </c>
       <c r="P61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.1984721400000002</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.2073664800000001</v>
       </c>
       <c r="R61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.2169449999999999</v>
       </c>
       <c r="S61">
-        <f t="shared" si="26"/>
+        <f>S58</f>
+        <v>2.2306286000000002</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="28"/>
         <v>2.3078041040000001</v>
       </c>
     </row>
-    <row r="62" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G62" s="15" t="s">
         <v>27</v>
       </c>
@@ -2974,35 +3138,35 @@
         <v>5.5778999999999995E-2</v>
       </c>
       <c r="J62">
-        <f t="shared" ref="J62:Q62" si="27">J59+$F$38</f>
+        <f t="shared" ref="J62:Q62" si="29">J59+$F$38</f>
         <v>5.5778999999999995E-2</v>
       </c>
       <c r="K62">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.7185999999999997E-2</v>
       </c>
       <c r="L62">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.7185999999999997E-2</v>
       </c>
       <c r="M62">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.7185999999999997E-2</v>
       </c>
       <c r="N62">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.7185999999999997E-2</v>
       </c>
       <c r="O62">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.7185999999999997E-2</v>
       </c>
       <c r="P62">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3.8830999999999997E-2</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.2514999999999997E-2</v>
       </c>
       <c r="R62">
@@ -3010,11 +3174,15 @@
         <v>4.6481999999999996E-2</v>
       </c>
       <c r="S62">
-        <f t="shared" ref="S62" si="28">S59+$F$38</f>
+        <f>S59+$F$38</f>
+        <v>5.2150999999999996E-2</v>
+      </c>
+      <c r="T62">
+        <f t="shared" ref="T62" si="30">T59+$F$38</f>
         <v>5.5778999999999995E-2</v>
       </c>
     </row>
-    <row r="63" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G63" s="15" t="s">
         <v>28</v>
       </c>
@@ -3023,59 +3191,63 @@
         <v>-3.8100000000000002E-2</v>
       </c>
       <c r="I63">
-        <f t="shared" ref="I63:S63" si="29">I60</f>
+        <f t="shared" ref="I63:T63" si="31">I60</f>
         <v>-3.8100000000000002E-2</v>
       </c>
       <c r="J63">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-3.8100000000000002E-2</v>
       </c>
       <c r="K63">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-3.8100000000000002E-2</v>
       </c>
       <c r="L63">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-3.8100000000000002E-2</v>
       </c>
       <c r="M63">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-3.8100000000000002E-2</v>
       </c>
       <c r="N63">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-3.8100000000000002E-2</v>
       </c>
       <c r="O63">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-3.8100000000000002E-2</v>
       </c>
       <c r="P63">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-3.8100000000000002E-2</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-3.8100000000000002E-2</v>
       </c>
       <c r="R63">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-3.8100000000000002E-2</v>
       </c>
       <c r="S63">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
+        <v>-3.8100000000000002E-2</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="31"/>
         <v>-3.8100000000000002E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="G36:S36"/>
-    <mergeCell ref="G46:S46"/>
-    <mergeCell ref="G56:S56"/>
+    <mergeCell ref="G36:T36"/>
+    <mergeCell ref="G46:T46"/>
+    <mergeCell ref="G56:T56"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G2:S2"/>
-    <mergeCell ref="G13:S13"/>
-    <mergeCell ref="G24:S24"/>
+    <mergeCell ref="G2:T2"/>
+    <mergeCell ref="G13:T13"/>
+    <mergeCell ref="G24:T24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
